--- a/endpoints.xlsx
+++ b/endpoints.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruslan\Desktop\Study\PRO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C0C44D-EE15-4EB1-A1EF-9C045A2EFD9A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DAF7355-3F20-4FA1-8FC2-9BEAF8BCAA62}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{D0301A7A-813F-4D88-8E00-CF103172AD95}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D0301A7A-813F-4D88-8E00-CF103172AD95}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="69">
   <si>
     <t>GET</t>
   </si>
@@ -117,24 +117,9 @@
     <t>all additionally for this type less less than given price</t>
   </si>
   <si>
-    <t>/additional/meal</t>
-  </si>
-  <si>
-    <t>all additionally for this meal</t>
-  </si>
-  <si>
-    <t>/delivery/add</t>
-  </si>
-  <si>
     <t>delivery</t>
   </si>
   <si>
-    <t>add or update delivery to db</t>
-  </si>
-  <si>
-    <t>/user/add</t>
-  </si>
-  <si>
     <t>user</t>
   </si>
   <si>
@@ -168,12 +153,6 @@
     <t>/user/id</t>
   </si>
   <si>
-    <t>POST,PUT</t>
-  </si>
-  <si>
-    <t>POST/PUT</t>
-  </si>
-  <si>
     <t>Deliveryman</t>
   </si>
   <si>
@@ -186,12 +165,6 @@
     <t>delete this deliveryman</t>
   </si>
   <si>
-    <t>/deliveryman/add</t>
-  </si>
-  <si>
-    <t>/deliveryman/delete/id</t>
-  </si>
-  <si>
     <t>add new deliveryman</t>
   </si>
   <si>
@@ -207,24 +180,15 @@
     <t>return all deliverymans</t>
   </si>
   <si>
-    <t>/user/delete</t>
-  </si>
-  <si>
     <t>delete user</t>
   </si>
   <si>
-    <t>/delivery/delete</t>
-  </si>
-  <si>
     <t>delete delivery</t>
   </si>
   <si>
     <t>/meal/name</t>
   </si>
   <si>
-    <t>/meal/add</t>
-  </si>
-  <si>
     <t>add new meal</t>
   </si>
   <si>
@@ -237,15 +201,6 @@
     <t>PUT</t>
   </si>
   <si>
-    <t>/meal/price/new_price</t>
-  </si>
-  <si>
-    <t>new_price</t>
-  </si>
-  <si>
-    <t>change price for given meal</t>
-  </si>
-  <si>
     <t>User</t>
   </si>
   <si>
@@ -253,6 +208,36 @@
   </si>
   <si>
     <t>+</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>/meal</t>
+  </si>
+  <si>
+    <t>update meal</t>
+  </si>
+  <si>
+    <t>/delivery</t>
+  </si>
+  <si>
+    <t>update delivery</t>
+  </si>
+  <si>
+    <t>add delivery to db</t>
+  </si>
+  <si>
+    <t>/user</t>
+  </si>
+  <si>
+    <t>update user</t>
+  </si>
+  <si>
+    <t>/deliveryman</t>
+  </si>
+  <si>
+    <t>update deliveryman</t>
   </si>
 </sst>
 </file>
@@ -605,18 +590,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B97ED55F-7104-4785-B75C-486D12C6D41D}">
-  <dimension ref="A4:G31"/>
+  <dimension ref="A4:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.140625" customWidth="1"/>
     <col min="6" max="7" width="48.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -645,13 +630,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
         <v>2</v>
@@ -665,13 +650,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="E7" t="s">
         <v>2</v>
@@ -685,13 +670,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="C8" t="s">
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s">
         <v>2</v>
@@ -705,13 +690,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s">
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s">
         <v>2</v>
@@ -725,13 +710,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E10" t="s">
         <v>2</v>
@@ -745,10 +730,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="D11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
@@ -757,323 +742,357 @@
         <v>2</v>
       </c>
       <c r="G11" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G12" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F13" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="G13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="E16" t="s">
         <v>17</v>
       </c>
       <c r="F16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" t="s">
         <v>22</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G17" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" t="s">
-        <v>2</v>
-      </c>
-      <c r="G17" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="D18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E18" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="F18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" t="s">
         <v>15</v>
       </c>
-      <c r="G18" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>73</v>
-      </c>
-      <c r="C20" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20" t="s">
-        <v>72</v>
-      </c>
-      <c r="E20" t="s">
-        <v>2</v>
-      </c>
-      <c r="F20" t="s">
-        <v>26</v>
-      </c>
       <c r="G20" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>73</v>
-      </c>
-      <c r="C21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" t="s">
         <v>0</v>
       </c>
-      <c r="D21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" t="s">
-        <v>2</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="D22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" t="s">
-        <v>34</v>
-      </c>
-      <c r="F23" t="s">
-        <v>2</v>
-      </c>
-      <c r="G23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" t="s">
-        <v>58</v>
-      </c>
-      <c r="E24" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25" t="s">
-        <v>0</v>
-      </c>
-      <c r="D25" t="s">
-        <v>44</v>
-      </c>
-      <c r="E25" t="s">
-        <v>2</v>
-      </c>
       <c r="F25" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G25" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="C26" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D26" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="E26" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="F26" t="s">
         <v>2</v>
       </c>
       <c r="G26" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>47</v>
+      <c r="A27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="E28" t="s">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="F28" t="s">
         <v>15</v>
       </c>
       <c r="G28" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="E29" t="s">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="F29" t="s">
         <v>2</v>
       </c>
       <c r="G29" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>73</v>
-      </c>
-      <c r="C30" t="s">
-        <v>0</v>
-      </c>
-      <c r="D30" t="s">
-        <v>54</v>
-      </c>
-      <c r="E30" t="s">
-        <v>2</v>
-      </c>
-      <c r="F30" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" t="s">
-        <v>55</v>
+      <c r="B30" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="C31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" t="s">
+        <v>67</v>
+      </c>
+      <c r="E31" t="s">
+        <v>2</v>
+      </c>
+      <c r="F31" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" t="s">
+        <v>67</v>
+      </c>
+      <c r="E32" t="s">
+        <v>42</v>
+      </c>
+      <c r="F32" t="s">
+        <v>2</v>
+      </c>
+      <c r="G32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E33" t="s">
+        <v>42</v>
+      </c>
+      <c r="F33" t="s">
+        <v>2</v>
+      </c>
+      <c r="G33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
         <v>0</v>
       </c>
-      <c r="D31" t="s">
-        <v>56</v>
-      </c>
-      <c r="E31" t="s">
-        <v>2</v>
-      </c>
-      <c r="F31" t="s">
-        <v>2</v>
-      </c>
-      <c r="G31" t="s">
-        <v>57</v>
+      <c r="D34" t="s">
+        <v>45</v>
+      </c>
+      <c r="E34" t="s">
+        <v>2</v>
+      </c>
+      <c r="F34" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" t="s">
+        <v>47</v>
+      </c>
+      <c r="E35" t="s">
+        <v>2</v>
+      </c>
+      <c r="F35" t="s">
+        <v>2</v>
+      </c>
+      <c r="G35" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
